--- a/res/page/车场运营/增值服务/电子优惠券/BusinessmanPage.xlsx
+++ b/res/page/车场运营/增值服务/电子优惠券/BusinessmanPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>别名</t>
   </si>
@@ -96,6 +96,18 @@
     <t>//*[@id="couponTraderTable"]//div[@class='el-table__fixed-right']//i[@class='icon-edit']</t>
   </si>
   <si>
+    <t>更多设置</t>
+  </si>
+  <si>
+    <t>//*[@id="couponTraderTable"]//div[@class='el-table__fixed-right']//i[@class='icon-gjpz_normal']</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>//*[@id="couponTraderTable"]//div[@class='el-table__fixed-right']//i[@class='icon-password']</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
@@ -141,7 +153,7 @@
     <t>限制购买</t>
   </si>
   <si>
-    <t>//*[@id='app']//label[contains(text(),'限制购买')]/following-sibling::*[1]//input</t>
+    <t>//*[@id='app']//label[contains(text(),'限制购买')]/following-sibling::*[1]//label</t>
   </si>
   <si>
     <t>发放员数量</t>
@@ -153,13 +165,13 @@
     <t>发券方式</t>
   </si>
   <si>
-    <t>//*[@id='app']//label[contains(text(),'发券方式')]/following-sibling::*[1]//input</t>
+    <t>//*[@id='app']//label[contains(text(),'发券方式')]/following-sibling::*[1]//label</t>
   </si>
   <si>
     <t>支持固定二维码发券</t>
   </si>
   <si>
-    <t>//*[@id='app']//label[contains(text(),'支持固定二维码发券')]/following-sibling::*[1]//input</t>
+    <t>//*[@id='app']//label[contains(text(),'固定二维码发券')]/following-sibling::*[1]//span[text()='支持']</t>
   </si>
   <si>
     <t>商家地址</t>
@@ -171,7 +183,7 @@
     <t>所属停车场</t>
   </si>
   <si>
-    <t>//*[@id='app']//label[contains(text(),'所属停车场')]/following-sibling::*[1]//span</t>
+    <t>//*[@id='app']//label[contains(text(),'所属车场')]/following-sibling::*[1]//span[text()='选择停车场']</t>
   </si>
   <si>
     <t>商家链接</t>
@@ -239,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -261,7 +273,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +360,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,120 +415,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -419,18 +431,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,6 +509,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,37 +557,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,43 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,55 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +644,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +664,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -663,30 +704,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,22 +723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1531,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" ht="32" customHeight="1" spans="1:3">
+    <row r="26" ht="33" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1542,18 +1554,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" ht="32" customHeight="1" spans="1:3">
-      <c r="A27" s="3" t="s">
+    <row r="27" ht="33" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" ht="29" customHeight="1" spans="1:3">
+    <row r="28" ht="32" customHeight="1" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1564,36 +1576,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="29" customHeight="1" spans="1:3">
-      <c r="A29" s="4" t="s">
+    <row r="29" ht="32" customHeight="1" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="27" customHeight="1" spans="1:3">
-      <c r="A30" s="3" t="s">
+    <row r="30" ht="29" customHeight="1" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="27" customHeight="1" spans="1:3">
-      <c r="A31" s="3" t="s">
+    <row r="31" ht="29" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1609,36 +1621,58 @@
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="1:3">
-      <c r="A34" s="4" t="s">
+    <row r="34" ht="27" customHeight="1" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="27" customHeight="1" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
